--- a/Process_Design/T=820K,P=2atm.xlsx
+++ b/Process_Design/T=820K,P=2atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB30"/>
+  <dimension ref="A1:BQ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.0445097205</v>
       </c>
@@ -675,112 +759,157 @@
         <v>30.5133</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>150676.193908988</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>315817.3024332389</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>105272.434144413</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>6.317405105158815</v>
+      </c>
+      <c r="T2">
         <v>5006.859416093619</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>425061.5025121145</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>530333.9366565275</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.0445097205</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA2">
+        <v>399.2729518510224</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>194402.9542346917</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>406302.1743505057</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>135434.0581168352</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>135434.0581168352</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.0445097205</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-2.19865999</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>770721.1900266423</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>6258.256063016334</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.0445097205</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>691.9340073792272</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>27804524.28495055</v>
+      </c>
+      <c r="AS2">
+        <v>58111455.75554665</v>
+      </c>
+      <c r="AT2">
+        <v>19370485.25184888</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>21429196.20853467</v>
       </c>
-      <c r="AH2">
-        <v>27804524.28495055</v>
-      </c>
-      <c r="AI2">
-        <v>58111455.75554665</v>
-      </c>
-      <c r="AJ2">
-        <v>19370485.25184888</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>40799681.46038355</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.0445097205</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>73549.68804315428</v>
+      </c>
+      <c r="BB2">
+        <v>40590.65841974063</v>
+      </c>
+      <c r="BC2">
+        <v>84834.47609725791</v>
+      </c>
+      <c r="BD2">
+        <v>28278.15869908597</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>28134.70365335894</v>
       </c>
-      <c r="AO2">
-        <v>40590.65841974063</v>
-      </c>
-      <c r="AP2">
-        <v>84834.47609725791</v>
-      </c>
-      <c r="AQ2">
-        <v>28278.15869908597</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>56412.86235244491</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.0445097205</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.8020695362567232</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>530333.9366565275</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>135434.0581168352</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>40799681.46038355</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>56412.86235244491</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>6258.256063016334</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>69459495.3615565</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>27931374.78798411</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.0637612358</v>
       </c>
@@ -818,112 +947,157 @@
         <v>31.77082048474</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>162483.0129235983</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>340564.3950878621</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>113521.4650292874</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>7.131099270734071</v>
+      </c>
+      <c r="T3">
         <v>5651.752727020288</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>479810.2575543265</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>593331.7225836138</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.0637612358</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA3">
+        <v>412.7769712804815</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>198651.7890225776</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>415182.2390571871</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>138394.079685729</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>138394.079685729</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.0637612358</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-2.27302202</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>796788.1546846916</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>6469.919816039695</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.0637612358</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>505.9483915394608</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>21308397.07343392</v>
+      </c>
+      <c r="AS3">
+        <v>44534549.88347688</v>
+      </c>
+      <c r="AT3">
+        <v>14844849.96115896</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>15669221.6859771</v>
       </c>
-      <c r="AH3">
-        <v>21308397.07343392</v>
-      </c>
-      <c r="AI3">
-        <v>44534549.88347688</v>
-      </c>
-      <c r="AJ3">
-        <v>14844849.96115896</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>30514071.64713606</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.0637612358</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>53783.06128503462</v>
+      </c>
+      <c r="BB3">
+        <v>33401.10264849022</v>
+      </c>
+      <c r="BC3">
+        <v>69808.30453534456</v>
+      </c>
+      <c r="BD3">
+        <v>23269.43484511485</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>20573.44539567671</v>
       </c>
-      <c r="AO3">
-        <v>33401.10264849022</v>
-      </c>
-      <c r="AP3">
-        <v>69808.30453534456</v>
-      </c>
-      <c r="AQ3">
-        <v>23269.43484511485</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>43842.88024079156</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.0637612358</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.7660906355413661</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>593331.7225836138</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>138394.079685729</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>30514071.64713606</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>43842.88024079156</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>6469.919816039695</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>68881679.52338119</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>37585569.27391896</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.0809394889</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>33.0801660706</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>175215.0002038476</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>367250.6404272646</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>122416.8801424215</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>8.049598770781722</v>
+      </c>
+      <c r="T4">
         <v>6379.709505783056</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>541610.7549180406</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>664027.6350604622</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.0809394889</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA4">
+        <v>427.5262521310216</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>203237.2189331896</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>424765.7875703662</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>141588.5958567887</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>141588.5958567887</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.0809394889</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.35424128</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>825258.8618449576</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>6701.101958181054</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.0809394889</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>418.6515261867232</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>18139915.98914046</v>
+      </c>
+      <c r="AS4">
+        <v>37912424.41730355</v>
+      </c>
+      <c r="AT4">
+        <v>12637474.80576785</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>12965637.76600282</v>
       </c>
-      <c r="AH4">
-        <v>18139915.98914046</v>
-      </c>
-      <c r="AI4">
-        <v>37912424.41730355</v>
-      </c>
-      <c r="AJ4">
-        <v>12637474.80576785</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>25603112.57177067</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.0809394889</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>44505.48597786084</v>
+      </c>
+      <c r="BB4">
+        <v>29663.82158726744</v>
+      </c>
+      <c r="BC4">
+        <v>61997.38711738894</v>
+      </c>
+      <c r="BD4">
+        <v>20665.79570579631</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>17024.52712241492</v>
       </c>
-      <c r="AO4">
-        <v>29663.82158726744</v>
-      </c>
-      <c r="AP4">
-        <v>61997.38711738894</v>
-      </c>
-      <c r="AQ4">
-        <v>20665.79570579631</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>37690.32282821124</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.0809394889</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.7296802627494992</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>664027.6350604622</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>141588.5958567887</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>25603112.57177067</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>37690.32282821124</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>6701.101958181054</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>68252629.74479336</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>41799509.51731905</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.0964898015</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>34.4434730823</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>188944.6559404302</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>396027.9988511418</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>132009.3329503806</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>9.086403120180368</v>
+      </c>
+      <c r="T5">
         <v>7201.428792898952</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>611371.2985638172</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>743380.6315141977</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.0964898015</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA5">
+        <v>443.6963255189976</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>208201.1971607244</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>435140.502065914</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>145046.8340219713</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>145046.8340219713</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.0964898015</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.44328436</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>856472.1412484898</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>6954.553786937737</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.0964898015</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>369.9007202716616</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>16327996.3594706</v>
+      </c>
+      <c r="AS5">
+        <v>34125512.39129356</v>
+      </c>
+      <c r="AT5">
+        <v>11375170.79709785</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>11455825.30681336</v>
       </c>
-      <c r="AH5">
-        <v>16327996.3594706</v>
-      </c>
-      <c r="AI5">
-        <v>34125512.39129356</v>
-      </c>
-      <c r="AJ5">
-        <v>11375170.79709785</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>22830996.10391121</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.0964898015</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>39324.69613174722</v>
+      </c>
+      <c r="BB5">
+        <v>27440.76271727903</v>
+      </c>
+      <c r="BC5">
+        <v>57351.19407911316</v>
+      </c>
+      <c r="BD5">
+        <v>19117.06469303772</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>15042.73779211599</v>
       </c>
-      <c r="AO5">
-        <v>27440.76271727903</v>
-      </c>
-      <c r="AP5">
-        <v>57351.19407911316</v>
-      </c>
-      <c r="AQ5">
-        <v>19117.06469303772</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>34159.8024851537</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.0964898015</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.6930458897554764</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>743380.6315141977</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>145046.8340219713</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>22830996.10391121</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>34159.8024851537</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>6954.553786937737</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>67559348.42602137</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>43798810.50030189</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.110432809</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>35.8629645942</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>203750.1481782511</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>427060.3105816143</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>142353.4368605381</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>10.25674958634658</v>
+      </c>
+      <c r="T6">
         <v>8128.98688465898</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>690117.1157288613</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>832470.5525893994</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.110432809</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA6">
+        <v>461.4420802801741</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>213576.5708645071</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>446375.0331068197</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>148791.6777022732</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>148791.6777022732</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.110432809</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-2.54100418</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>890726.9766037231</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>7232.703050022232</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.110432809</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>341.3902879251088</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>15251901.1560083</v>
+      </c>
+      <c r="AS6">
+        <v>31876473.41605735</v>
+      </c>
+      <c r="AT6">
+        <v>10625491.13868578</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>10572857.21704062</v>
       </c>
-      <c r="AH6">
-        <v>15251901.1560083</v>
-      </c>
-      <c r="AI6">
-        <v>31876473.41605735</v>
-      </c>
-      <c r="AJ6">
-        <v>10625491.13868578</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>21198348.3557264</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.110432809</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>36295.28763541517</v>
+      </c>
+      <c r="BB6">
+        <v>26086.42048831623</v>
+      </c>
+      <c r="BC6">
+        <v>54520.61882058091</v>
+      </c>
+      <c r="BD6">
+        <v>18173.5396068603</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>13883.90880783449</v>
       </c>
-      <c r="AO6">
-        <v>26086.42048831623</v>
-      </c>
-      <c r="AP6">
-        <v>54520.61882058091</v>
-      </c>
-      <c r="AQ6">
-        <v>18173.5396068603</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>32057.44841469479</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.110432809</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.6563958529081686</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>832470.5525893994</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>148791.6777022732</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>21198348.3557264</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>32057.44841469479</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>7232.703050022232</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>66794031.3164036</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>44575130.5789208</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.123378006</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>37.3409566642</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>219715.7842471133</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>460524.2837819495</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>153508.0945939831</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>11.57783913152801</v>
+      </c>
+      <c r="T7">
         <v>9176.016403692523</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>779005.5592718133</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>932513.6538657964</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.123378006</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA7">
+        <v>480.8642907681019</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>219377.4955916784</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>458498.9657866079</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>152832.9885955359</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>152832.9885955359</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.123378006</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-2.64795567</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>928217.8938091263</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>7537.129297730105</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.123378006</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>323.5139965325246</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>14570337.3767327</v>
+      </c>
+      <c r="AS7">
+        <v>30452005.11737134</v>
+      </c>
+      <c r="AT7">
+        <v>10150668.37245711</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>10019228.47261228</v>
       </c>
-      <c r="AH7">
-        <v>14570337.3767327</v>
-      </c>
-      <c r="AI7">
-        <v>30452005.11737134</v>
-      </c>
-      <c r="AJ7">
-        <v>10150668.37245711</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>20169896.8450694</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.123378006</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>34410.65571301906</v>
+      </c>
+      <c r="BB7">
+        <v>25220.98818281705</v>
+      </c>
+      <c r="BC7">
+        <v>52711.86530208762</v>
+      </c>
+      <c r="BD7">
+        <v>17570.62176736254</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>13162.98718269906</v>
       </c>
-      <c r="AO7">
-        <v>25220.98818281705</v>
-      </c>
-      <c r="AP7">
-        <v>52711.86530208762</v>
-      </c>
-      <c r="AQ7">
-        <v>17570.62176736254</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>30733.6089500616</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.123378006</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.6199954345550639</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>932513.6538657964</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>152832.9885955359</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>20169896.8450694</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>30733.6089500616</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>7537.129297730105</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>65958661.93615022</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>44665147.71037169</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.135410053</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>38.879859843</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>236932.4674661396</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>496610.4518090286</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>165536.8172696762</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>13.069087397446</v>
+      </c>
+      <c r="T8">
         <v>10357.90521684583</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>879342.9949718075</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>1044879.812241484</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.135410053</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA8">
+        <v>502.1505444113415</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>225641.7665336316</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>471591.29205529</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>157197.0973517633</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>157197.0973517633</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.135410053</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-2.76517181</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>969306.9950444339</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>7870.772799760802</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.135410053</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>312.9130014632726</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>14163499.17365197</v>
+      </c>
+      <c r="AS8">
+        <v>29601713.27293263</v>
+      </c>
+      <c r="AT8">
+        <v>9867237.757644208</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>9690915.655317551</v>
       </c>
-      <c r="AH8">
-        <v>14163499.17365197</v>
-      </c>
-      <c r="AI8">
-        <v>29601713.27293263</v>
-      </c>
-      <c r="AJ8">
-        <v>9867237.757644208</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>19558153.41296176</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.135410053</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>33299.00066930626</v>
+      </c>
+      <c r="BB8">
+        <v>24701.61341300021</v>
+      </c>
+      <c r="BC8">
+        <v>51626.37203317043</v>
+      </c>
+      <c r="BD8">
+        <v>17208.79067772347</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>12737.74968609308</v>
       </c>
-      <c r="AO8">
-        <v>24701.61341300021</v>
-      </c>
-      <c r="AP8">
-        <v>51626.37203317043</v>
-      </c>
-      <c r="AQ8">
-        <v>17208.79067772347</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>29946.54036381656</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.135410053</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.5839982869857449</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>1044879.812241484</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>157197.0973517633</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>19558153.41296176</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>29946.54036381656</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>7870.772799760802</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>65035395.89624811</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>44237348.26052953</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.146692814</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>40.48218475180001</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>255498.2323377631</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>535524.2949799515</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>178508.0983266505</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>14.75241149777134</v>
+      </c>
+      <c r="T9">
         <v>11692.02373255868</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>992604.0981286798</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>1171112.19645533</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.146692814</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA9">
+        <v>525.4725151780141</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>232399.3638343271</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>485714.6704137437</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>161904.8901379146</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>161904.8901379146</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.146692814</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-2.89359795</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>1014325.664552914</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>8236.324396169659</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.146692814</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>307.4514477741992</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>13953095.14104562</v>
+      </c>
+      <c r="AS9">
+        <v>29161968.84478535</v>
+      </c>
+      <c r="AT9">
+        <v>9720656.281595116</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>9521771.337566948</v>
       </c>
-      <c r="AH9">
-        <v>13953095.14104562</v>
-      </c>
-      <c r="AI9">
-        <v>29161968.84478535</v>
-      </c>
-      <c r="AJ9">
-        <v>9720656.281595116</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>19242427.61916206</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.146692814</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>32733.86328754818</v>
+      </c>
+      <c r="BB9">
+        <v>24434.91951838401</v>
+      </c>
+      <c r="BC9">
+        <v>51068.98179342256</v>
+      </c>
+      <c r="BD9">
+        <v>17022.99393114085</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>12521.56966980437</v>
       </c>
-      <c r="AO9">
-        <v>24434.91951838401</v>
-      </c>
-      <c r="AP9">
-        <v>51068.98179342256</v>
-      </c>
-      <c r="AQ9">
-        <v>17022.99393114085</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>29544.56360094522</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.146692814</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.5486335942894769</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>1171112.19645533</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>161904.8901379146</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>19242427.61916206</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>29544.56360094522</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>8236.324396169659</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>64033551.7437704</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>43420326.15001797</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.157432445</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>42.1505450352</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>275518.7902271968</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>577487.3843162046</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>192495.7947720682</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>16.65255107551124</v>
+      </c>
+      <c r="T10">
         <v>13197.97935489643</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>1120453.455650062</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>1312949.25042213</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.157432445</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA10">
+        <v>550.9402316718588</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>239659.8859222071</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>500889.1615774129</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>166963.0538591376</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>166963.0538591376</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.157432445</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-3.03383998</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>1063486.291819048</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>8635.508689570666</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.157432445</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>305.703298785202</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>13885630.38563572</v>
+      </c>
+      <c r="AS10">
+        <v>29020967.50597865</v>
+      </c>
+      <c r="AT10">
+        <v>9673655.835326215</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>9467631.163377706</v>
       </c>
-      <c r="AH10">
-        <v>13885630.38563572</v>
-      </c>
-      <c r="AI10">
-        <v>29020967.50597865</v>
-      </c>
-      <c r="AJ10">
-        <v>9673655.835326215</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>19141286.99870392</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.157432445</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>32563.93355906742</v>
+      </c>
+      <c r="BB10">
+        <v>24354.36862724389</v>
+      </c>
+      <c r="BC10">
+        <v>50900.63043093973</v>
+      </c>
+      <c r="BD10">
+        <v>16966.87681031324</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>12456.56704804074</v>
       </c>
-      <c r="AO10">
-        <v>24354.36862724389</v>
-      </c>
-      <c r="AP10">
-        <v>50900.63043093973</v>
-      </c>
-      <c r="AQ10">
-        <v>16966.87681031324</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>29423.44385835399</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.157432445</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.5140964306017605</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>1312949.25042213</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>166963.0538591376</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>19141286.99870392</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>29423.44385835399</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>8635.508689570666</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>62925427.65967204</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>42266169.40413894</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.167811407</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>43.8876619546</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>297108.1345633388</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>622738.6500447581</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>207579.5500149194</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>18.79743213480284</v>
+      </c>
+      <c r="T11">
         <v>14897.90483843799</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>1264770.046179892</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>1472349.596194812</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.167811407</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA11">
+        <v>578.7520319417494</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>247455.7645226989</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>517182.5478524407</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>172394.1826174802</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>172394.1826174802</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.167811407</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-3.18699008</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>1117171.731069115</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>9071.434456281217</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.167811407</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>306.7943276496605</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>13927742.25672263</v>
+      </c>
+      <c r="AS11">
+        <v>29108981.31655029</v>
+      </c>
+      <c r="AT11">
+        <v>9702993.772183429</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>9501420.327309985</v>
       </c>
-      <c r="AH11">
-        <v>13927742.25672263</v>
-      </c>
-      <c r="AI11">
-        <v>29108981.31655029</v>
-      </c>
-      <c r="AJ11">
-        <v>9702993.772183429</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>19204414.09949341</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.167811407</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>32696.49495161653</v>
+      </c>
+      <c r="BB11">
+        <v>24417.22037794787</v>
+      </c>
+      <c r="BC11">
+        <v>51031.99058991104</v>
+      </c>
+      <c r="BD11">
+        <v>17010.66352997034</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>12507.27529160334</v>
       </c>
-      <c r="AO11">
-        <v>24417.22037794787</v>
-      </c>
-      <c r="AP11">
-        <v>51031.99058991104</v>
-      </c>
-      <c r="AQ11">
-        <v>17010.66352997034</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>29517.93882157369</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.167811407</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.4805410258938775</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>1472349.596194812</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>172394.1826174802</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>19204414.09949341</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>29517.93882157369</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>9071.434456281217</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>61718525.60597026</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>40830778.35438669</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.17801137</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>45.6963696378</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>320389.200294228</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>671535.7638167018</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>223845.2546055673</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>21.21857853804817</v>
+      </c>
+      <c r="T12">
         <v>16816.78442033008</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>1427674.927350939</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>1651520.181956507</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.17801137</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA12">
+        <v>609.0291709993256</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>255795.0836342898</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>534611.7247956657</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>178203.9082652219</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>178203.9082652219</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.17801137</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-3.35371596</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>1175616.042252419</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>9546.002263089642</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.17801137</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>310.0951822513765</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>14055013.28819379</v>
+      </c>
+      <c r="AS12">
+        <v>29374977.77232503</v>
+      </c>
+      <c r="AT12">
+        <v>9791659.257441675</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>9603647.79432513</v>
       </c>
-      <c r="AH12">
-        <v>14055013.28819379</v>
-      </c>
-      <c r="AI12">
-        <v>29374977.77232503</v>
-      </c>
-      <c r="AJ12">
-        <v>9791659.257441675</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>19395307.05176681</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.17801137</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>33064.86022996307</v>
+      </c>
+      <c r="BB12">
+        <v>24591.34162956303</v>
+      </c>
+      <c r="BC12">
+        <v>51395.90400578672</v>
+      </c>
+      <c r="BD12">
+        <v>17131.96800192891</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>12648.18476679223</v>
       </c>
-      <c r="AO12">
-        <v>24591.34162956303</v>
-      </c>
-      <c r="AP12">
-        <v>51395.90400578672</v>
-      </c>
-      <c r="AQ12">
-        <v>17131.96800192891</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>29780.15276872113</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.17801137</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.44814392795946</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>1651520.181956507</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>178203.9082652219</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>19395307.05176681</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>29780.15276872113</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>9546.002263089642</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>60399777.00727286</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>39135419.71025251</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.187993159</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>47.5796180319</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>345494.5428155988</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>724156.561741495</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>241385.5205804983</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>23.95157317715223</v>
+      </c>
+      <c r="T13">
         <v>18982.819321552</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>1611562.265319259</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>1852947.785899757</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.187993159</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA13">
+        <v>642.0299288656381</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>264720.9784394122</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>553266.8449383714</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>184422.2816461238</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>184422.2816461238</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.187993159</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-3.53543988</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>1239317.786276381</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>10063.26042456421</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.187993159</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>315.5428297573591</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>14264615.27527764</v>
+      </c>
+      <c r="AS13">
+        <v>29813045.92533026</v>
+      </c>
+      <c r="AT13">
+        <v>9937681.975110086</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>9772361.437585412</v>
       </c>
-      <c r="AH13">
-        <v>14264615.27527764</v>
-      </c>
-      <c r="AI13">
-        <v>29813045.92533026</v>
-      </c>
-      <c r="AJ13">
-        <v>9937681.975110086</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>19710043.4126955</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.187993159</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>33662.46871161408</v>
+      </c>
+      <c r="BB13">
+        <v>24872.18141365721</v>
+      </c>
+      <c r="BC13">
+        <v>51982.85915454357</v>
+      </c>
+      <c r="BD13">
+        <v>17327.61971818119</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>12876.78583879297</v>
       </c>
-      <c r="AO13">
-        <v>24872.18141365721</v>
-      </c>
-      <c r="AP13">
-        <v>51982.85915454357</v>
-      </c>
-      <c r="AQ13">
-        <v>17327.61971818119</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>30204.40555697415</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.187993159</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.4169846007315243</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>1852947.785899757</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>184422.2816461238</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>19710043.4126955</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>30204.40555697415</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>10063.26042456421</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>58959159.26018874</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>37171478.11396582</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.207874747</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>51.5821516006</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>401761.0535912068</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>842091.1683271696</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>280697.0561090565</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>30.51894740473068</v>
+      </c>
+      <c r="T14">
         <v>24187.79176561931</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>2053442.738435389</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>2334139.794544445</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.207874747</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA14">
+        <v>716.821743776573</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>284377.1466808685</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>594348.236563015</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>198116.0788543383</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>198116.0788543383</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.207874747</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-3.9472929</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>1383689.290344396</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>11235.55703759649</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.207874747</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>331.5732774287259</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>14878292.35409982</v>
+      </c>
+      <c r="AS14">
+        <v>31095631.02006862</v>
+      </c>
+      <c r="AT14">
+        <v>10365210.34002287</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>10268824.40196764</v>
       </c>
-      <c r="AH14">
-        <v>14878292.35409982</v>
-      </c>
-      <c r="AI14">
-        <v>31095631.02006862</v>
-      </c>
-      <c r="AJ14">
-        <v>10365210.34002287</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>20634034.74199051</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.207874747</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>35407.22601688652</v>
+      </c>
+      <c r="BB14">
+        <v>25680.9159779866</v>
+      </c>
+      <c r="BC14">
+        <v>53673.11439399199</v>
+      </c>
+      <c r="BD14">
+        <v>17891.03813133066</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>13544.20171827394</v>
       </c>
-      <c r="AO14">
-        <v>25680.9159779866</v>
-      </c>
-      <c r="AP14">
-        <v>53673.11439399199</v>
-      </c>
-      <c r="AQ14">
-        <v>17891.03813133066</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>31435.23984960461</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.207874747</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.3588146801493673</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>2334139.794544445</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>198116.0788543383</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>20634034.74199051</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>31435.23984960461</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>11235.55703759649</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>55686695.94654304</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>32477734.53426654</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.217914422</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>53.7079659652</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>433242.6026123191</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>908076.4950754208</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>302692.1650251403</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>34.44984762362503</v>
+      </c>
+      <c r="T15">
         <v>27303.22673410402</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>2317930.186280706</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>2620622.351305846</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.217914422</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA15">
+        <v>758.9603672863205</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>295134.4084956291</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>616830.9137558647</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>205610.3045852882</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>205610.3045852882</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.217914422</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-4.17933593</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>1465029.961950007</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>11896.04329103406</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.217914422</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>341.8952951183336</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>15271076.41117647</v>
+      </c>
+      <c r="AS15">
+        <v>31916549.69935881</v>
+      </c>
+      <c r="AT15">
+        <v>10638849.89978627</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>10588497.28981479</v>
       </c>
-      <c r="AH15">
-        <v>15271076.41117647</v>
-      </c>
-      <c r="AI15">
-        <v>31916549.69935881</v>
-      </c>
-      <c r="AJ15">
-        <v>10638849.89978627</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>21227347.18960106</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.217914422</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>36526.91945626251</v>
+      </c>
+      <c r="BB15">
+        <v>26191.53271085129</v>
+      </c>
+      <c r="BC15">
+        <v>54740.30336567919</v>
+      </c>
+      <c r="BD15">
+        <v>18246.76778855973</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>13972.51411411946</v>
       </c>
-      <c r="AO15">
-        <v>26191.53271085129</v>
-      </c>
-      <c r="AP15">
-        <v>54740.30336567919</v>
-      </c>
-      <c r="AQ15">
-        <v>18246.76778855973</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>32219.28190267919</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.217914422</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.3319369516729401</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>2620622.351305846</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>205610.3045852882</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>21227347.18960106</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>32219.28190267919</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>11896.04329103406</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>53835100.26004832</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>29737405.08936241</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.228108917</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>55.9213899199</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>467191.0121224322</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>979232.3614086179</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>326410.7871362059</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>38.88705567198</v>
+      </c>
+      <c r="T16">
         <v>30819.93597282775</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>2616484.147693189</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>2942894.934829395</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.228108917</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA16">
+        <v>804.5625192318543</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>306542.9267421077</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>640674.7168910049</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>213558.2389636683</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>213558.2389636683</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.228108917</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-4.43045143</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>1553056.322494338</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>12610.81733865403</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.228108917</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>353.6383032718312</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>15715778.45385563</v>
+      </c>
+      <c r="AS16">
+        <v>32845976.96855826</v>
+      </c>
+      <c r="AT16">
+        <v>10948658.98951942</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>10952178.25232861</v>
       </c>
-      <c r="AH16">
-        <v>15715778.45385563</v>
-      </c>
-      <c r="AI16">
-        <v>32845976.96855826</v>
-      </c>
-      <c r="AJ16">
-        <v>10948658.98951942</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>21900837.24184803</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.228108917</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>37799.10643616146</v>
+      </c>
+      <c r="BB16">
+        <v>26764.15280075929</v>
+      </c>
+      <c r="BC16">
+        <v>55937.07935358692</v>
+      </c>
+      <c r="BD16">
+        <v>18645.69311786231</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>14459.15932803414</v>
       </c>
-      <c r="AO16">
-        <v>26764.15280075929</v>
-      </c>
-      <c r="AP16">
-        <v>55937.07935358692</v>
-      </c>
-      <c r="AQ16">
-        <v>18645.69311786231</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>33104.85244589644</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.228108917</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.3065575592352558</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>2942894.934829395</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>213558.2389636683</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>21900837.24184803</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>33104.85244589644</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>12610.81733865403</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>51820958.52007153</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>26717952.43464589</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.238494481</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>58.2260338771</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>503799.5798757981</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1055963.919419673</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>351987.973139891</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>43.8957846308598</v>
+      </c>
+      <c r="T17">
         <v>34789.60410918794</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>2953492.432186268</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>3305480.405326159</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.238494481</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA17">
+        <v>853.7876193269249</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>318606.6497493077</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>665887.8979760529</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>221962.6326586843</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>221962.6326586843</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.238494481</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-4.70151727</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>1648076.101691927</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>13382.37794573845</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.238494481</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>366.7808866061088</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>16210864.88518831</v>
+      </c>
+      <c r="AS17">
+        <v>33880707.61004356</v>
+      </c>
+      <c r="AT17">
+        <v>11293569.20334785</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>11359204.05819119</v>
       </c>
-      <c r="AH17">
-        <v>16210864.88518831</v>
-      </c>
-      <c r="AI17">
-        <v>33880707.61004356</v>
-      </c>
-      <c r="AJ17">
-        <v>11293569.20334785</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>22652773.26153904</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.238494481</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>39221.69560257296</v>
+      </c>
+      <c r="BB17">
+        <v>27395.41565548635</v>
+      </c>
+      <c r="BC17">
+        <v>57256.41871996646</v>
+      </c>
+      <c r="BD17">
+        <v>19085.47290665549</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>15003.3373617191</v>
       </c>
-      <c r="AO17">
-        <v>27395.41565548635</v>
-      </c>
-      <c r="AP17">
-        <v>57256.41871996646</v>
-      </c>
-      <c r="AQ17">
-        <v>19085.47290665549</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>34088.81026837459</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.238494481</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.282695538110209</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>3305480.405326159</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>221962.6326586843</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>22652773.26153904</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>34088.81026837459</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>13382.37794573845</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>49653344.51849385</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>23425657.03075586</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.249110282</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>60.6256575347</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>543276.7581737763</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1138708.085132235</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>379569.361710745</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>49.54964826683767</v>
+      </c>
+      <c r="T18">
         <v>39270.5737338822</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>3333908.082616041</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>3713477.444326786</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.249110282</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA18">
+        <v>906.8533367611544</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>331342.0214581703</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>692504.8248475757</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>230834.9416158586</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>230834.9416158586</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.249110282</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-4.99373208</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>1750509.468893287</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>14214.13688741349</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.249110282</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>381.3080385224096</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>16755024.26906493</v>
+      </c>
+      <c r="AS18">
+        <v>35018000.7223457</v>
+      </c>
+      <c r="AT18">
+        <v>11672666.90744857</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>11809109.95303902</v>
       </c>
-      <c r="AH18">
-        <v>16755024.26906493</v>
-      </c>
-      <c r="AI18">
-        <v>35018000.7223457</v>
-      </c>
-      <c r="AJ18">
-        <v>11672666.90744857</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>23481776.86048759</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.249110282</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>40793.0934749471</v>
+      </c>
+      <c r="BB18">
+        <v>28082.15797851082</v>
+      </c>
+      <c r="BC18">
+        <v>58691.7101750876</v>
+      </c>
+      <c r="BD18">
+        <v>19563.90339169587</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>15604.4386666604</v>
       </c>
-      <c r="AO18">
-        <v>28082.15797851082</v>
-      </c>
-      <c r="AP18">
-        <v>58691.7101750876</v>
-      </c>
-      <c r="AQ18">
-        <v>19563.90339169587</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>35168.34205835627</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.249110282</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.2603327099755617</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>3713477.444326786</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>230834.9416158586</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>23481776.86048759</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>35168.34205835627</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>14214.13688741349</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>47294364.15197843</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>19818892.42660242</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.259954948</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>63.1241747976</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>585847.321174146</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1227935.98518101</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>409311.9950603367</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>55.93174017500528</v>
+      </c>
+      <c r="T19">
         <v>44328.70067570044</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>3763321.984447485</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>4172633.979507822</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.259954948</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA19">
+        <v>964.001887368551</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>344768.878564343</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>720566.9561994768</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>240188.9853998256</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>240188.9853998256</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.259954948</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-5.30842966</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>1860823.976120075</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>15109.89068609501</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.259954948</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>397.2881110412648</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>17350029.91670353</v>
+      </c>
+      <c r="AS19">
+        <v>36261562.52591038</v>
+      </c>
+      <c r="AT19">
+        <v>12087187.50863679</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>12304012.79894797</v>
       </c>
-      <c r="AH19">
-        <v>17350029.91670353</v>
-      </c>
-      <c r="AI19">
-        <v>36261562.52591038</v>
-      </c>
-      <c r="AJ19">
-        <v>12087187.50863679</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>24391200.30758476</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.259954948</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>42520.69981958767</v>
+      </c>
+      <c r="BB19">
+        <v>28825.06691342034</v>
+      </c>
+      <c r="BC19">
+        <v>60244.3898490485</v>
+      </c>
+      <c r="BD19">
+        <v>20081.46328301616</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>16265.29384945338</v>
       </c>
-      <c r="AO19">
-        <v>28825.06691342034</v>
-      </c>
-      <c r="AP19">
-        <v>60244.3898490485</v>
-      </c>
-      <c r="AQ19">
-        <v>20081.46328301616</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>36346.75713246955</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.259954948</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.2394364435385605</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>4172633.979507822</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>240188.9853998256</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>24391200.30758476</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>36346.75713246955</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>15109.89068609501</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>44752763.03309063</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>15897283.11277966</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.271077385</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>65.7256616521</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>631753.6693446382</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1324155.690946362</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>441385.2303154539</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>63.1358585498103</v>
+      </c>
+      <c r="T20">
         <v>50038.32469365217</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>4248045.273471512</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>4689430.503786966</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.271077385</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA20">
+        <v>1025.322292459648</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>358869.6171927126</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>750037.4999327692</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>250012.4999775897</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>250012.4999775897</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.271077385</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-5.64610022</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>1979191.46223609</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>16071.03467335705</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.271077385</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>414.6905825560624</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>17993930.60923611</v>
+      </c>
+      <c r="AS20">
+        <v>37607314.97330347</v>
+      </c>
+      <c r="AT20">
+        <v>12535771.65776782</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>12842967.34176125</v>
       </c>
-      <c r="AH20">
-        <v>17993930.60923611</v>
-      </c>
-      <c r="AI20">
-        <v>37607314.97330347</v>
-      </c>
-      <c r="AJ20">
-        <v>12535771.65776782</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>25378738.99952907</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.271077385</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>44401.40455388043</v>
+      </c>
+      <c r="BB20">
+        <v>29620.2142834991</v>
+      </c>
+      <c r="BC20">
+        <v>61906.24785251312</v>
+      </c>
+      <c r="BD20">
+        <v>20635.41595083771</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>16984.71322112699</v>
       </c>
-      <c r="AO20">
-        <v>29620.2142834991</v>
-      </c>
-      <c r="AP20">
-        <v>61906.24785251312</v>
-      </c>
-      <c r="AQ20">
-        <v>20635.41595083771</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>37620.1291719647</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.271077385</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.2199844928260245</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>4689430.503786966</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>250012.4999775897</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>25378738.99952907</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>37620.1291719647</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>16071.03467335705</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>42016896.76124862</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>11645023.59410967</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.282494938</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>68.43436108740001</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>681257.1798911308</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1427915.04905181</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>475971.68301727</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>71.2678801765671</v>
+      </c>
+      <c r="T21">
         <v>56483.35843393827</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>4795201.783714551</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>5271173.46673182</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.282494938</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA21">
+        <v>1091.062493663361</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>373662.6494947153</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>780954.937443955</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>260318.3124813183</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>260318.3124813183</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.282494938</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-6.00810909</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>2106090.53183102</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>17101.45511846789</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.282494938</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>433.5606059365952</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>18687570.18867905</v>
+      </c>
+      <c r="AS21">
+        <v>39057021.69433922</v>
+      </c>
+      <c r="AT21">
+        <v>13019007.2314464</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>13427371.96585635</v>
       </c>
-      <c r="AH21">
-        <v>18687570.18867905</v>
-      </c>
-      <c r="AI21">
-        <v>39057021.69433922</v>
-      </c>
-      <c r="AJ21">
-        <v>13019007.2314464</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>26446379.19730276</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.282494938</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>46440.00290610805</v>
+      </c>
+      <c r="BB21">
+        <v>30467.04902566735</v>
+      </c>
+      <c r="BC21">
+        <v>63676.13246364475</v>
+      </c>
+      <c r="BD21">
+        <v>21225.37748788158</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>17764.53108350184</v>
       </c>
-      <c r="AO21">
-        <v>30467.04902566735</v>
-      </c>
-      <c r="AP21">
-        <v>63676.13246364475</v>
-      </c>
-      <c r="AQ21">
-        <v>21225.37748788158</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>38989.90857138342</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.282494938</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.201916750612289</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>5271173.46673182</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>260318.3124813183</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>26446379.19730276</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>38989.90857138342</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>17101.45511846789</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>39068495.9045496</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>7034533.564343855</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.294233764</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>71.2546922824</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>734639.7355866699</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1539804.88578966</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>513268.29526322</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>80.44732299776756</v>
+      </c>
+      <c r="T22">
         <v>63758.52584188069</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>5412833.183451329</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>5926101.478714549</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.294233764</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA22">
+        <v>1161.383454279127</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>389145.1247741629</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>813313.3107780004</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>271104.4369260001</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>271104.4369260001</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.294233764</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-6.39534264</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>2241831.894220683</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>18203.67498107195</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.294233764</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>453.9240759254656</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>19431048.23537747</v>
+      </c>
+      <c r="AS22">
+        <v>40610890.8119389</v>
+      </c>
+      <c r="AT22">
+        <v>13536963.60397963</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>14058028.63141167</v>
       </c>
-      <c r="AH22">
-        <v>19431048.23537747</v>
-      </c>
-      <c r="AI22">
-        <v>40610890.8119389</v>
-      </c>
-      <c r="AJ22">
-        <v>13536963.60397963</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>27594992.2353913</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.294233764</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>48639.31125081819</v>
+      </c>
+      <c r="BB22">
+        <v>31364.13387279348</v>
+      </c>
+      <c r="BC22">
+        <v>65551.03979413837</v>
+      </c>
+      <c r="BD22">
+        <v>21850.34659804612</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>18605.82477443461</v>
       </c>
-      <c r="AO22">
-        <v>31364.13387279348</v>
-      </c>
-      <c r="AP22">
-        <v>65551.03979413837</v>
-      </c>
-      <c r="AQ22">
-        <v>21850.34659804612</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>40456.17137248073</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.294233764</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.1851775884463351</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>5926101.478714549</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>271104.4369260001</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>27594992.2353913</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>40456.17137248073</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>18203.67498107195</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>35904691.68395051</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>2053833.686565109</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.306206602</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>74.19125552720001</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>792205.2884569074</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1660462.284605678</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>553487.4282018926</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>90.80909596143678</v>
+      </c>
+      <c r="T23">
         <v>71970.74900423673</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>6110016.712338847</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>6663504.14054074</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.306206602</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA23">
+        <v>1236.639815842467</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>405354.9940180521</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>847191.9374977287</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>282397.3124992429</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>282397.3124992429</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.306206602</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-6.80975376</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>2387100.118056727</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>19383.25295862063</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.306206602</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>476.0354120367945</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>20232701.1230871</v>
+      </c>
+      <c r="AS23">
+        <v>42286345.34725204</v>
+      </c>
+      <c r="AT23">
+        <v>14095448.44908401</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>14742816.71077952</v>
       </c>
-      <c r="AH23">
-        <v>20232701.1230871</v>
-      </c>
-      <c r="AI23">
-        <v>42286345.34725204</v>
-      </c>
-      <c r="AJ23">
-        <v>14095448.44908401</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>28838265.15986354</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.306206602</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>51026.55089479831</v>
+      </c>
+      <c r="BB23">
+        <v>32319.70018289132</v>
+      </c>
+      <c r="BC23">
+        <v>67548.17338224285</v>
+      </c>
+      <c r="BD23">
+        <v>22516.05779408095</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>19519.00716473276</v>
       </c>
-      <c r="AO23">
-        <v>32319.70018289132</v>
-      </c>
-      <c r="AP23">
-        <v>67548.17338224285</v>
-      </c>
-      <c r="AQ23">
-        <v>22516.05779408095</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>42035.06495881371</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.306206602</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.1696880542759977</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>6663504.14054074</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>282397.3124992429</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>28838265.15986354</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>42035.06495881371</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>19383.25295862063</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>32507578.35036043</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>-3338006.580460527</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.318516539</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>77.24884108179999</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>854281.6151338768</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1790574.265320606</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>596858.0884402019</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>102.505485812519</v>
+      </c>
+      <c r="T24">
         <v>81240.72278071193</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>6896998.861070856</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>7493856.949511059</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.318516539</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA24">
+        <v>1316.830603170422</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>422252.1539803328</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>882507.0018188955</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>294169.0006062984</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>294169.0006062984</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.318516539</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-7.25133708</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>2541893.320932228</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>20640.17376596969</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.318516539</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>499.7769875132048</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>21087267.68859976</v>
+      </c>
+      <c r="AS24">
+        <v>44072389.4691735</v>
+      </c>
+      <c r="AT24">
+        <v>14690796.4897245</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>15478093.30328395</v>
       </c>
-      <c r="AH24">
-        <v>21087267.68859976</v>
-      </c>
-      <c r="AI24">
-        <v>44072389.4691735</v>
-      </c>
-      <c r="AJ24">
-        <v>14690796.4897245</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>30168889.79300845</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.318516539</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>53589.1640407162</v>
+      </c>
+      <c r="BB24">
+        <v>33325.77140953805</v>
+      </c>
+      <c r="BC24">
+        <v>69650.86224593452</v>
+      </c>
+      <c r="BD24">
+        <v>23216.95408197817</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>20499.27456432117</v>
       </c>
-      <c r="AO24">
-        <v>33325.77140953805</v>
-      </c>
-      <c r="AP24">
-        <v>69650.86224593452</v>
-      </c>
-      <c r="AQ24">
-        <v>23216.95408197817</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>43716.22864629935</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.318516539</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.1553986024229288</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>7493856.949511059</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>294169.0006062984</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>30168889.79300845</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>43716.22864629935</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>20640.17376596969</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>28866625.33192198</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>-9154646.813616093</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.331171797</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>80.4324367224</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>921222.1787561878</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1930881.68667297</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>643627.2288909899</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>115.7083946334043</v>
+      </c>
+      <c r="T25">
         <v>91704.68816670457</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>7785345.922485857</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>8428973.151376847</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.331171797</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA25">
+        <v>1402.094831589948</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>439827.8585643685</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>919240.2243995301</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>306413.4081331767</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>306413.4081331767</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.331171797</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-7.72085811</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>2706479.845738246</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>21976.61634739456</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.331171797</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>525.2204061461728</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>21996361.42203686</v>
+      </c>
+      <c r="AS25">
+        <v>45972395.37205704</v>
+      </c>
+      <c r="AT25">
+        <v>15324131.79068568</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>16266075.97834697</v>
       </c>
-      <c r="AH25">
-        <v>21996361.42203686</v>
-      </c>
-      <c r="AI25">
-        <v>45972395.37205704</v>
-      </c>
-      <c r="AJ25">
-        <v>15324131.79068568</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>31590207.76903265</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.331171797</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>56334.80802017298</v>
+      </c>
+      <c r="BB25">
+        <v>34382.571093074</v>
+      </c>
+      <c r="BC25">
+        <v>71859.57358452464</v>
+      </c>
+      <c r="BD25">
+        <v>23953.19119484154</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>21549.55610534309</v>
       </c>
-      <c r="AO25">
-        <v>34382.571093074</v>
-      </c>
-      <c r="AP25">
-        <v>71859.57358452464</v>
-      </c>
-      <c r="AQ25">
-        <v>23953.19119484154</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>45502.74730018464</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.331171797</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.142239795118949</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>8428973.151376847</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>306413.4081331767</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>31590207.76903265</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>45502.74730018464</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>21976.61634739456</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>24973642.63208237</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-15419431.06010788</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.344031196</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>83.74723495960001</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>993408.1216228469</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2082183.422921487</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>694061.140973829</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>130.6118621817291</v>
+      </c>
+      <c r="T26">
         <v>103516.4313721294</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>8788113.705029733</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>9482174.846003562</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.344031196</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA26">
+        <v>1492.944675543811</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>458148.0535272583</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>957529.4318719697</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>319176.4772906565</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>319176.4772906565</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.344031196</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-8.221137219999999</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>2881848.348716584</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>23400.60859157866</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.344031196</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>552.7630698314256</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>22973050.19552277</v>
+      </c>
+      <c r="AS26">
+        <v>48013674.90864258</v>
+      </c>
+      <c r="AT26">
+        <v>16004558.30288086</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>17119072.27267925</v>
       </c>
-      <c r="AH26">
-        <v>22973050.19552277</v>
-      </c>
-      <c r="AI26">
-        <v>48013674.90864258</v>
-      </c>
-      <c r="AJ26">
-        <v>16004558.30288086</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>33123630.57556011</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.344031196</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>59305.97451426659</v>
+      </c>
+      <c r="BB26">
+        <v>35503.21973007795</v>
+      </c>
+      <c r="BC26">
+        <v>74201.72923586292</v>
+      </c>
+      <c r="BD26">
+        <v>24733.90974528764</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>22686.10598121838</v>
       </c>
-      <c r="AO26">
-        <v>35503.21973007795</v>
-      </c>
-      <c r="AP26">
-        <v>74201.72923586292</v>
-      </c>
-      <c r="AQ26">
-        <v>24733.90974528764</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>47420.01572650601</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.344031196</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.1301215291717225</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>9482174.846003562</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>319176.4772906565</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>33123630.57556011</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>47420.01572650601</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>23400.60859157866</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>20803071.42822473</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-22192731.09494768</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.357184097</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>87.19864353760001</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>1071250.478841054</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2245341.003650849</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>748447.0012169495</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>147.4349264616878</v>
+      </c>
+      <c r="T27">
         <v>116849.5509672107</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>9920040.003987158</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>10668487.00520411</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.357184097</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA27">
+        <v>1589.358681006948</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>477168.4035246869</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>997281.9633665956</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>332427.3211221985</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>332427.3211221985</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.357184097</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-8.752056270000001</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>3067957.416914899</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>24911.81422534898</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.357184097</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>582.3319792115728</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>24013504.15220072</v>
+      </c>
+      <c r="AS27">
+        <v>50188223.67809951</v>
+      </c>
+      <c r="AT27">
+        <v>16729407.89269984</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>18034821.39618241</v>
       </c>
-      <c r="AH27">
-        <v>24013504.15220072</v>
-      </c>
-      <c r="AI27">
-        <v>50188223.67809951</v>
-      </c>
-      <c r="AJ27">
-        <v>16729407.89269984</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>34764229.28888225</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.357184097</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>62494.86283865587</v>
+      </c>
+      <c r="BB27">
+        <v>36681.27892880623</v>
+      </c>
+      <c r="BC27">
+        <v>76663.87296120501</v>
+      </c>
+      <c r="BD27">
+        <v>25554.62432040167</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>23905.940223584</v>
       </c>
-      <c r="AO27">
-        <v>36681.27892880623</v>
-      </c>
-      <c r="AP27">
-        <v>76663.87296120501</v>
-      </c>
-      <c r="AQ27">
-        <v>25554.62432040167</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>49460.56454398567</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.357184097</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.1189883328329222</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>10668487.00520411</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>332427.3211221985</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>34764229.28888225</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>49460.56454398567</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>24911.81422534898</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>16355723.05120302</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-29483792.94277487</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.370558632</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>90.79229232429999</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>1155192.477579185</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2421283.433005971</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>807094.4776686571</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>166.4248346471249</v>
+      </c>
+      <c r="T28">
         <v>131900.0026995789</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>11197760.64584966</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>12004855.12351832</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.370558632</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA28">
+        <v>1691.617648007588</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>496905.5715240885</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>1038532.644485345</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>346177.5481617816</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>346177.5481617816</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.370558632</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-9.315161529999999</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>3265349.081870543</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>26514.63454478881</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.370558632</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>614.1936839641231</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>25125808.10685016</v>
+      </c>
+      <c r="AS28">
+        <v>52512938.94331683</v>
+      </c>
+      <c r="AT28">
+        <v>17504312.98110561</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>19021578.39236889</v>
       </c>
-      <c r="AH28">
-        <v>25125808.10685016</v>
-      </c>
-      <c r="AI28">
-        <v>52512938.94331683</v>
-      </c>
-      <c r="AJ28">
-        <v>17504312.98110561</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>36525891.3734745</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.370558632</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>65929.94774424362</v>
+      </c>
+      <c r="BB28">
+        <v>37923.69492064251</v>
+      </c>
+      <c r="BC28">
+        <v>79260.52238414285</v>
+      </c>
+      <c r="BD28">
+        <v>26420.17412804762</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>25219.95117881922</v>
       </c>
-      <c r="AO28">
-        <v>37923.69492064251</v>
-      </c>
-      <c r="AP28">
-        <v>79260.52238414285</v>
-      </c>
-      <c r="AQ28">
-        <v>26420.17412804762</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>51640.12530686684</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.370558632</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.1087666416745687</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>12004855.12351832</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>346177.5481617816</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>36525891.3734745</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>51640.12530686684</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>26514.63454478881</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>11610621.94468554</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-37344456.86032072</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.384188632</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>94.53404315430001</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>1245712.074143899</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2611012.507405612</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>870337.5024685372</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>187.8606793361301</v>
+      </c>
+      <c r="T29">
         <v>148888.9814078499</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>12640054.15077059</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>13510391.65323913</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.384188632</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA29">
+        <v>1799.89450172625</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>517354.2417655687</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>1081270.365290039</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>360423.4550966795</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>360423.4550966795</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.384188632</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-9.911405240000001</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>3474357.14305653</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>28211.78000161902</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.384188632</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>648.4163211446872</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>26310938.6304963</v>
+      </c>
+      <c r="AS29">
+        <v>54989861.73773726</v>
+      </c>
+      <c r="AT29">
+        <v>18329953.91257909</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>20081453.46585096</v>
       </c>
-      <c r="AH29">
-        <v>26310938.6304963</v>
-      </c>
-      <c r="AI29">
-        <v>54989861.73773726</v>
-      </c>
-      <c r="AJ29">
-        <v>18329953.91257909</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>38411407.37843005</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.384188632</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>69618.42539363915</v>
+      </c>
+      <c r="BB29">
+        <v>39229.26316281256</v>
+      </c>
+      <c r="BC29">
+        <v>81989.16001027824</v>
+      </c>
+      <c r="BD29">
+        <v>27329.72000342608</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>26630.89156971378</v>
       </c>
-      <c r="AO29">
-        <v>39229.26316281256</v>
-      </c>
-      <c r="AP29">
-        <v>81989.16001027824</v>
-      </c>
-      <c r="AQ29">
-        <v>27329.72000342608</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>53960.61157313986</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.384188632</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.09939179184084235</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>13510391.65323913</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>360423.4550966795</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>38411407.37843005</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>53960.61157313986</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>28211.78000161902</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>6547523.701932489</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-45816871.17640812</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.398014443</v>
       </c>
@@ -4679,108 +6023,153 @@
         <v>98.43000000000001</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>1343324.690689009</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2815608.551684162</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>938536.1838947206</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>212.057504117311</v>
+      </c>
+      <c r="T30">
         <v>168066.1748881749</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>14268117.97227735</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>15206654.15617207</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.398014443</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA30">
+        <v>1914.269962614439</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>538492.3049296023</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>1125448.917302869</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>375149.6391009563</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>375149.6391009563</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.398014443</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-10.5412319</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>3695137.41609261</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>30004.51581867199</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.398014443</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>685.2561016417256</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>27576266.59733788</v>
+      </c>
+      <c r="AS30">
+        <v>57634397.18843617</v>
+      </c>
+      <c r="AT30">
+        <v>19211465.72947872</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>21222381.46784424</v>
       </c>
-      <c r="AH30">
-        <v>27576266.59733788</v>
-      </c>
-      <c r="AI30">
-        <v>57634397.18843617</v>
-      </c>
-      <c r="AJ30">
-        <v>19211465.72947872</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>40433847.19732296</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.398014443</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>73587.79334475032</v>
+      </c>
+      <c r="BB30">
+        <v>40603.70979274073</v>
+      </c>
+      <c r="BC30">
+        <v>84861.75346682812</v>
+      </c>
+      <c r="BD30">
+        <v>28287.25115560937</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>28149.27994044526</v>
       </c>
-      <c r="AO30">
-        <v>40603.70979274073</v>
-      </c>
-      <c r="AP30">
-        <v>84861.75346682812</v>
-      </c>
-      <c r="AQ30">
-        <v>28287.25115560937</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>56436.53109605463</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.398014443</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.09080562071802444</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>15206654.15617207</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>375149.6391009563</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>40433847.19732296</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>56436.53109605463</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>30004.51581867199</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>1178090.542052775</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-54924001.49745794</v>
       </c>
     </row>
